--- a/Assets/StreamingAssets/Dialogues/emys.xlsx
+++ b/Assets/StreamingAssets/Dialogues/emys.xlsx
@@ -1,32 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\FAtiMA-Toolkit-Thalamus-Unity\Assets\StreamingAssets\Dialogues\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\FAtiMA-Toolkit-Thalamus-Unity\Assets\StreamingAssets\Dialogues\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Dialogs" sheetId="1" r:id="rId1"/>
-    <sheet name="Agent Dialogs" sheetId="2" r:id="rId2"/>
+    <sheet name="Dialogs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agent Dialogs'!$A$2:$E$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Player Dialogs'!$A$2:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dialogs!$A$2:$E$9</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
-  <si>
-    <t>Player Dialogs</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+  <si>
+    <t>Dialogs</t>
   </si>
   <si>
     <t>Current State</t>
@@ -35,71 +33,60 @@
     <t>Next State</t>
   </si>
   <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
     <t>Utterance</t>
   </si>
   <si>
-    <t>Meanings</t>
-  </si>
-  <si>
-    <t>Styles</t>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Greeting</t>
+  </si>
+  <si>
+    <t>M(SIConf(Mid), SIClaim(Low))</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Hi! How are you?</t>
+  </si>
+  <si>
+    <t>Hi Emys! How are you?</t>
+  </si>
+  <si>
+    <t>M(SIConf(Low), SIClaim(High))</t>
+  </si>
+  <si>
+    <t>What's up dude?</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Restart</t>
   </si>
   <si>
     <t>S1</t>
   </si>
   <si>
-    <t>SIConf(High), SIClaim(Low)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Agent Dialogs</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Hi there! How are you?</t>
-  </si>
-  <si>
-    <t>What's up dude?</t>
-  </si>
-  <si>
-    <t>Any</t>
-  </si>
-  <si>
-    <t>Restart</t>
-  </si>
-  <si>
-    <t>SIConf(Mid), SIClaim(Low)</t>
-  </si>
-  <si>
-    <t>Hi Emys! How are you?</t>
-  </si>
-  <si>
-    <t>Hi! How are you?</t>
-  </si>
-  <si>
-    <t>SIConf(Low), SIClaim(High)</t>
-  </si>
-  <si>
-    <t>Greeting</t>
-  </si>
-  <si>
-    <t>St</t>
+    <t>M(SIConf(High), SIClaim(Low))</t>
+  </si>
+  <si>
+    <t>Hi there! How are you today?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -108,11 +95,6 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -128,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -173,44 +155,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -230,7 +194,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -246,7 +210,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -258,7 +222,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -275,9 +239,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -305,14 +269,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -340,6 +321,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,24 +489,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -525,209 +523,130 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E5"/>
+  <autoFilter ref="A2:E9" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:E6"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>